--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -5366,7 +5366,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
 Warga BANTEN elu-elukan PAK ANIES
 PRESIDEN 2024
 BANTEN HEBAT MANTAP KEREN Bro
-💞💛💚👍👍👍👍👍👍👍👍💚💛💞</t>
+💞💛💚👍👍👍👍👍👍👍👍</t>
         </is>
       </c>
     </row>
@@ -20548,7 +20548,7 @@
         <v>1452</v>
       </c>
       <c r="B1454" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>1712</v>
       </c>
       <c r="B1714" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1714" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>1784</v>
       </c>
       <c r="B1786" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1786" t="inlineStr">
         <is>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C853" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>1341</v>
       </c>
       <c r="B1343" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>1351</v>
       </c>
       <c r="B1353" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1353" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>1606</v>
       </c>
       <c r="B1608" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>2072</v>
       </c>
       <c r="B2074" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2074" t="inlineStr">
         <is>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -1308,7 +1308,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C823" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C824" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C853" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>1163</v>
       </c>
       <c r="B1165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>1341</v>
       </c>
       <c r="B1343" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>1351</v>
       </c>
       <c r="B1353" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1353" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>1462</v>
       </c>
       <c r="B1464" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>1826</v>
       </c>
       <c r="B1828" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>2072</v>
       </c>
       <c r="B2074" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2074" t="inlineStr">
         <is>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -454,8 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kita Butuh Pemimpin Yang Benar-benar Cakap, Paham Masalah, Dan Berpihak Pada Rakyat.
-2024 Anies Baswedan Presiden RI 🇮🇩 </t>
+          <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
         </is>
       </c>
     </row>
@@ -468,8 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANIES BASWEDAN PRESIDEN RI 2024
-</t>
+          <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
         </is>
       </c>
     </row>
@@ -482,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Survey menyatakan warga Jakarta puas kinerjanya Anies Baswedan.Atas dasar itulah Rakyat menilai Anies pantas jadi Presiden PD 2924.</t>
+          <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
         </is>
       </c>
     </row>
@@ -495,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dukung Anies Baswedan untuk Presiden RI ke VIII di pemilu 2024</t>
+          <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -508,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELAWAN  DPD Kabupaten Bangkalan mengajak seluruh komponen bangsa untuk mengusung Bapak Anies Baswedan sebagai calon presiden tahun 2024,” Dr H Engkun Iskandar membacakan pernyataan deklarasi. </t>
+          <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
         </is>
       </c>
     </row>
@@ -517,13 +515,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semoga  
-Selalu sehat dan panjang umur, supaya 2024 nanti bisa menghadiri acara pelantikan Anies Baswedan sebagai presiden RI.
-Aamiin</t>
+          <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
         </is>
       </c>
     </row>
@@ -536,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anies Baswedan Presiden!!!! MERDEKA!! 👍👍</t>
+          <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
         </is>
       </c>
     </row>
@@ -545,11 +541,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mengerikan kalau Anies Baswedan jadi Presiden. Maka HTI dan FPI akan bangkit lagi dan meminta rehabilitasi. Buntutnya, mereka eksis kembali gelar demo ala 212 berjilid-jilid.    </t>
+          <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
         </is>
       </c>
     </row>
@@ -562,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Nauzubillah gobloknya ... Pilpres 2024, InsyaAllah Anies Baswedan Presiden RI 🇮🇩</t>
+          <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
         </is>
       </c>
     </row>
@@ -575,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr H Engkan Iskandar Pimpin Deklarasi Relawan Dukung Anies Baswedan Presiden </t>
+          <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -588,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Inilah mantan Goodbener DKI pak Anies Baswedan, Calon Presiden RI yg sangat toleran thd umat beragama non muslim, dan yg terpenting tdk hobi nonton bokep sprti capres idolanya si densi alias  🤪 </t>
+          <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
         </is>
       </c>
     </row>
@@ -601,7 +597,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetap akan kalah sama Anies Baswedan insyaallah jadi presiden RI</t>
+          <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
         </is>
       </c>
     </row>
@@ -614,7 +610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In sha Allah Pak Anies Baswedan, akan jadi Presiden, semangat Pak Anies... Harkat martabat mu tak akan jatuh, hanya karna di caci di maki, di hina oleh siapa pun 😇</t>
+          <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
         </is>
       </c>
     </row>
@@ -627,8 +623,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ketika masyarakat yakin bahwa Anies adalah satu2 calon presiden yang bisa mensejahterakan rakyat Indonesia maka keyakinan itu dibuktikan bersama.
-Pilih Anies Baswedan! </t>
+          <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -641,7 +636,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anies Baswedan presiden RI 2024</t>
+          <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
         </is>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
+          <t>Teriakan 'Presiden' Sambut Prabowo saat Tiba di Bandara Sumbar #PrabowoDicintaiMilenial #IkutPakde Prabowo Subianto</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
+          <t>"Prabowo adalah capres Gerindra yang kita tetapkan melalui rapat pimpinan nasional. Menyebutkan bahwa calon presiden hanya tunggal, satu nama, namanya Prabowo Subianto. Calon presiden, bukan calon wakil presiden," kata Sekjen Gerindra, Ahmad Muzani.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
+          <t>Presiden Joko Widodo disebut-sebut ingin menduetkan Ganjar Pranowo dan Prabowo Subianto sebagai pasangan bakal calon presiden dan wakil presiden di Pemilu 2024.#newsupdate #news #update #text</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
+          <t>Pak Prabowo Subianto tetap Calon Presiden. Insyaallah beliau Presiden RI 2024 Amiiin</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
+          <t>Sementara dari simulasi 3 nama calon Presiden paling populer, jika pemilihan Presiden diadakan sekarang, yang akan dipilih sebagai Presiden oleh responden lagi-lagi adalah Prabowo Subianto (32.7%).</t>
         </is>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
+          <t>Sejauh ini, baru Partai Gerindra dan Partai Kebangkitan Bangsa (PKB) yang menyatakan mendukung Prabowo Subianto maju di kontestasi Pemilihan Presiden (Pilpres) 2024. #PrabowoDicintaiMilenial</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
+          <t>http://GELORA.CO - Menteri Pertahanan RI Prabowo Subianto mengaku bahwa dirinya sudah mengantongi beberapa nama yang berpotensi mendampinginya di pemilu 2024. Seperti diketahui, #PrabowoSubianto telah ditetapkan sebagai calon presiden (capres) dari partainya Gerindra.…</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
+          <t>Kendati demikian, Prabowo Subianto sudah punya kriteria sosok calon wakil presiden atau cawapres yang dapat mendampinginya di Pilpres 2024 mendatang. #PrabowoDicintaiMilenial</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
+          <t>All in Prabowo Subianto For Presiden</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
+          <t>PRABOWO SUBIANTO DAN ERICK THOIR 100% PRESIDEN DAN WAKIL PRESIDEN 2924 MENANG.... BRAVO 🙏🙏🙏🙏🙏🙏🙏🙏💜💜💜💜💜💜💜💜💜✌✌✌✌⚽⚽⚽⚽⚽👈👈👈</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
+          <t xml:space="preserve">Pasti lihat, Prabowo Subianto cuma beliau seorang calon presiden yang matang dan paling hebat. </t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
+          <t>Cocok banget ki setuju Presiden Prabowo Subianto Wapres Ganjar Pranowo</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
+          <t xml:space="preserve">Rakyat setuju, Prabowo Subianto sebab beliau satu2nya calon presiden yg terbaik dan paling diakui. </t>
         </is>
       </c>
     </row>
@@ -619,11 +619,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
+          <t>Elektabilitas calon presiden Partai Gerindra Prabowo Subianto terus meningkat. Dalam simulasi tiga nama, survei PRC tergambar, 35,6% responden menegaskan akan memilih Prabowo sebagai presiden jika Pilpres digelar saat ini.</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
+          <t>Statement Bapak Presiden ini menguatkan dan memperjelas bahwa beliau menginginkan dan mendukung Bapak H. Prabowo Subianto untuk menjadi Presiden Rapublik Indonesia selanjutnya.</t>
         </is>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Teriakan 'Presiden' Sambut Prabowo saat Tiba di Bandara Sumbar #PrabowoDicintaiMilenial #IkutPakde Prabowo Subianto</t>
+          <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Prabowo adalah capres Gerindra yang kita tetapkan melalui rapat pimpinan nasional. Menyebutkan bahwa calon presiden hanya tunggal, satu nama, namanya Prabowo Subianto. Calon presiden, bukan calon wakil presiden," kata Sekjen Gerindra, Ahmad Muzani.</t>
+          <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Presiden Joko Widodo disebut-sebut ingin menduetkan Ganjar Pranowo dan Prabowo Subianto sebagai pasangan bakal calon presiden dan wakil presiden di Pemilu 2024.#newsupdate #news #update #text</t>
+          <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pak Prabowo Subianto tetap Calon Presiden. Insyaallah beliau Presiden RI 2024 Amiiin</t>
+          <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sementara dari simulasi 3 nama calon Presiden paling populer, jika pemilihan Presiden diadakan sekarang, yang akan dipilih sebagai Presiden oleh responden lagi-lagi adalah Prabowo Subianto (32.7%).</t>
+          <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
         </is>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sejauh ini, baru Partai Gerindra dan Partai Kebangkitan Bangsa (PKB) yang menyatakan mendukung Prabowo Subianto maju di kontestasi Pemilihan Presiden (Pilpres) 2024. #PrabowoDicintaiMilenial</t>
+          <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://GELORA.CO - Menteri Pertahanan RI Prabowo Subianto mengaku bahwa dirinya sudah mengantongi beberapa nama yang berpotensi mendampinginya di pemilu 2024. Seperti diketahui, #PrabowoSubianto telah ditetapkan sebagai calon presiden (capres) dari partainya Gerindra.…</t>
+          <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kendati demikian, Prabowo Subianto sudah punya kriteria sosok calon wakil presiden atau cawapres yang dapat mendampinginya di Pilpres 2024 mendatang. #PrabowoDicintaiMilenial</t>
+          <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>All in Prabowo Subianto For Presiden</t>
+          <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRABOWO SUBIANTO DAN ERICK THOIR 100% PRESIDEN DAN WAKIL PRESIDEN 2924 MENANG.... BRAVO 🙏🙏🙏🙏🙏🙏🙏🙏💜💜💜💜💜💜💜💜💜✌✌✌✌⚽⚽⚽⚽⚽👈👈👈</t>
+          <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pasti lihat, Prabowo Subianto cuma beliau seorang calon presiden yang matang dan paling hebat. </t>
+          <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cocok banget ki setuju Presiden Prabowo Subianto Wapres Ganjar Pranowo</t>
+          <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rakyat setuju, Prabowo Subianto sebab beliau satu2nya calon presiden yg terbaik dan paling diakui. </t>
+          <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
         </is>
       </c>
     </row>
@@ -619,11 +619,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Elektabilitas calon presiden Partai Gerindra Prabowo Subianto terus meningkat. Dalam simulasi tiga nama, survei PRC tergambar, 35,6% responden menegaskan akan memilih Prabowo sebagai presiden jika Pilpres digelar saat ini.</t>
+          <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Statement Bapak Presiden ini menguatkan dan memperjelas bahwa beliau menginginkan dan mendukung Bapak H. Prabowo Subianto untuk menjadi Presiden Rapublik Indonesia selanjutnya.</t>
+          <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
         </is>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -450,11 +450,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
+          <t>Karena "Dosa" di Wadas, Netizen Tolak Calon Presiden dari PDIP, Ganjar Pranowo</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
+          <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, Untuk membuat Twibbon mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, ada beberapa langkah yang harus diikuti. Pembuatan Twibbon terbilang cepat dan…</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
+          <t>Alasan PPP Dukung Ganjar Pranowo sebagai Calon Presiden 2024</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
+          <t>Ketua Umum PDIP Megawati Soekarnoputri resmi mengumumkan Ganjar Pranowo sebagai calon presiden dari PDIP pada Pemilu 2024 mendatang.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
+          <t>Ganjar Pranowo the next presiden Indonesia maju 🇮🇩💪🇮🇩</t>
         </is>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
+          <t>Tidak ada yang salah Ganjar Pranowo suka sekali nonton Bokep, masalahnya jadi tak elok soal etika dan martabat karena sekarang Ganjar Pranowo seorang Capres. Jabatan Presiden itu harus bersih dan menjaga norma2 Budi Pekerti. #BongkarTPPUKorupsi349T #BongkarTPPUKorupsi349T</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
+          <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029,</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
+          <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. Tengku Zanzabella menyebut Ganjar Pranowo adalah sosok tokoh yang sangat merakyat dan nasionalis</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
+          <t>Ayo PAN dan GOLKAR mari merapat dan bergabung bersama² mendukung Ganjar Pranowo sbg calon Presiden.</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
+          <t>Muslim Arbi: Oligarki dan Taipan akan Menjadikan Ganjar Pranowo sebagai Presiden Indonesia 2024!</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
+          <t>GANJAR PRANOWO, calon Presiden 2024 pilihan PDI Perjuangan 👍</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
+          <t>SAH..... PPP, HANURA RESMI DUKUNG GANJAR PRANOWO PRESIDEN RI 2024.</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
+          <t>Betul!! Harapan bangsa lndonesia adalah Ganjar Pranowo menjadi Presiden RI 2024. Sosok yang ramah dan dekat dgn masyarakatnya. #GanjarMenangTotal</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
+          <t>Bismillah... Ganjar Pranowo Calon Presiden RI 2024</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
+          <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. *Semua Akan Ganjar Pada Waktunya 🤟Tetap solid dan Jangan Mau Diadu Domba ✊</t>
         </is>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -450,11 +450,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Karena "Dosa" di Wadas, Netizen Tolak Calon Presiden dari PDIP, Ganjar Pranowo</t>
+          <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, Untuk membuat Twibbon mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, ada beberapa langkah yang harus diikuti. Pembuatan Twibbon terbilang cepat dan…</t>
+          <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alasan PPP Dukung Ganjar Pranowo sebagai Calon Presiden 2024</t>
+          <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ketua Umum PDIP Megawati Soekarnoputri resmi mengumumkan Ganjar Pranowo sebagai calon presiden dari PDIP pada Pemilu 2024 mendatang.</t>
+          <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ganjar Pranowo the next presiden Indonesia maju 🇮🇩💪🇮🇩</t>
+          <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
         </is>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tidak ada yang salah Ganjar Pranowo suka sekali nonton Bokep, masalahnya jadi tak elok soal etika dan martabat karena sekarang Ganjar Pranowo seorang Capres. Jabatan Presiden itu harus bersih dan menjaga norma2 Budi Pekerti. #BongkarTPPUKorupsi349T #BongkarTPPUKorupsi349T</t>
+          <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029,</t>
+          <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. Tengku Zanzabella menyebut Ganjar Pranowo adalah sosok tokoh yang sangat merakyat dan nasionalis</t>
+          <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ayo PAN dan GOLKAR mari merapat dan bergabung bersama² mendukung Ganjar Pranowo sbg calon Presiden.</t>
+          <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Muslim Arbi: Oligarki dan Taipan akan Menjadikan Ganjar Pranowo sebagai Presiden Indonesia 2024!</t>
+          <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GANJAR PRANOWO, calon Presiden 2024 pilihan PDI Perjuangan 👍</t>
+          <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SAH..... PPP, HANURA RESMI DUKUNG GANJAR PRANOWO PRESIDEN RI 2024.</t>
+          <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Betul!! Harapan bangsa lndonesia adalah Ganjar Pranowo menjadi Presiden RI 2024. Sosok yang ramah dan dekat dgn masyarakatnya. #GanjarMenangTotal</t>
+          <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bismillah... Ganjar Pranowo Calon Presiden RI 2024</t>
+          <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. *Semua Akan Ganjar Pada Waktunya 🤟Tetap solid dan Jangan Mau Diadu Domba ✊</t>
+          <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
         </is>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Process/DataPredict.xlsx
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
